--- a/biology/Botanique/Pirttimäki_(Espoo)/Pirttimäki_(Espoo).xlsx
+++ b/biology/Botanique/Pirttimäki_(Espoo)/Pirttimäki_(Espoo).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pirttim%C3%A4ki_(Espoo)</t>
+          <t>Pirttimäki_(Espoo)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pirttimäki est une zone de loisirs de plein air située dans les quartiers de Kunnarla et de  Nuuksio à Espoo en Finlande[1],[2],[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pirttimäki est une zone de loisirs de plein air située dans les quartiers de Kunnarla et de  Nuuksio à Espoo en Finlande.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pirttim%C3%A4ki_(Espoo)</t>
+          <t>Pirttimäki_(Espoo)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">D'une superficie de 430 hectares, Pirttimäki est située entre le lac Bodominjärvi et le lac Nuuksion Pitkäjärvi.
 Pirttimäki est une zone sauvage façonnée par l'ère glaciaire .
@@ -521,7 +535,7 @@
 Dans la partie orientale de Pirttimäki, le long de la route Kunnarlantie, à l'extrémité nord du lac Bodominjärvi, il y a un chalet avec des cafés et des salles.
 Dans son voisinage immédiat, il y a un parking, des aires de jeux pour enfants, des terrains de jeux de balle, un sauna.
 Pirttimäki compte des aires de camping sur les rives de ses étangs.
-La ville d'Helsinki a acheté Pirttimäki en 1946[3].
+La ville d'Helsinki a acheté Pirttimäki en 1946.
 </t>
         </is>
       </c>
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pirttim%C3%A4ki_(Espoo)</t>
+          <t>Pirttimäki_(Espoo)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,7 +564,9 @@
           <t>Sentiers de randonnée</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Du chalet de Pirttimäki un sentier de 7,4 kilomètres de long mène à Solvalla.
 Il existe aussi d'autres sentiers de randonnée dans la zone, par exemple, un sentier vers Oittaa, Bemböle, Kasavuori et le parc central d'Espoo.
